--- a/public/bieumau/phieunhap.xlsx
+++ b/public/bieumau/phieunhap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\New Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5958DF-08EB-45A1-B537-9A2897FE7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E1677-47C4-436B-8284-D132B1E1D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,80 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>PHIẾU NHẬP HÀNG KHO 
 KIÊM VẬN CHUYỂN NỘI BỘ</t>
   </si>
   <si>
-    <r>
-      <t>Ký hiệu (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Serial</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">):  </t>
+    <t>Bản thể hiện phiếu xuất kho điện tử</t>
+  </si>
+  <si>
+    <r>
+      <t>Số (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">.): </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>6C24NLN</t>
-    </r>
-  </si>
-  <si>
-    <t>Bản thể hiện phiếu xuất kho điện tử</t>
-  </si>
-  <si>
-    <r>
-      <t>Số (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">.): </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Display"/>
         <family val="1"/>
@@ -224,22 +187,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Đơn vị mua hàng </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(Buyẻ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>CÔNG TY TNHH LG DISPLAY VIỆT NAM HẢI PHÒNG</t>
     </r>
     <r>
@@ -425,9 +372,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <r>
@@ -595,6 +539,25 @@
   </si>
   <si>
     <t>(Ký, họ tên)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đơn vị mua hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Buyer)</t>
+    </r>
+  </si>
+  <si>
+    <t>VND</t>
   </si>
 </sst>
 </file>
@@ -721,12 +684,6 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,62 +694,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,90 +1329,88 @@
   <dimension ref="C3:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="6"/>
-    <col min="3" max="3" width="17.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.6640625" style="6"/>
-    <col min="12" max="12" width="10.21875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="2" width="8.7109375" style="4"/>
+    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" style="4"/>
+    <col min="12" max="12" width="10.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="3:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L4" s="26"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="F6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9" t="s">
-        <v>7</v>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1458,13 +1419,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>201723640</v>
       </c>
       <c r="G8" s="1"/>
@@ -1473,33 +1434,33 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="3:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="12" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1507,12 +1468,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="9"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1523,16 +1484,16 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1541,14 +1502,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1556,11 +1517,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
@@ -1573,32 +1534,32 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="3:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="3:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="3:15" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="3:15" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="10" t="s">
-        <v>21</v>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1606,237 +1567,256 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="3:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="18" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="3:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="I18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="J18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="18" t="s">
+      <c r="K18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="I19" s="12">
+        <v>50</v>
+      </c>
+      <c r="J19" s="13">
+        <v>8</v>
+      </c>
+      <c r="K19" s="13">
+        <v>400</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="12"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="12"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="12"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="12"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="12"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="21">
-        <v>50</v>
-      </c>
-      <c r="J19" s="24">
-        <v>8</v>
-      </c>
-      <c r="K19" s="24">
-        <v>400</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
         <f>SUM(I19:I25)</f>
         <v>50</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
         <f>SUM(K19:K25)</f>
         <v>400</v>
       </c>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7" t="s">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="3:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="3:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="25" t="s">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="3:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I31" s="15"/>
-      <c r="J31" s="26"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+      <c r="J31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
@@ -1848,30 +1828,11 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/public/bieumau/phieunhap.xlsx
+++ b/public/bieumau/phieunhap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tttn-2025\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E1677-47C4-436B-8284-D132B1E1D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196EDE0-2B0D-4EB7-B49A-DF17D520973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
+    <workbookView xWindow="10980" yWindow="696" windowWidth="11208" windowHeight="11652" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -721,11 +721,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,22 +754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,25 +777,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>214032</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>7096</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555172</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>474382</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19796</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4" descr="LG이노텍">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B35E18E-9CD1-4C2E-8544-D926202752D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D089DCDA-C8E2-41BC-B425-DA224AA19720}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,8 +818,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5647092" y="6339316"/>
-          <a:ext cx="1449070" cy="744220"/>
+          <a:off x="1153886" y="65315"/>
+          <a:ext cx="1807028" cy="912607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,174 +832,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516964</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5330C3-691E-461C-AE0B-C86FBE9BA3E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1772920" y="316230"/>
-          <a:ext cx="1776804" cy="541441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516964</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD7755E-1C46-4D22-BF24-1EF077E23B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1772920" y="316230"/>
-          <a:ext cx="1776804" cy="541441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1328,86 +1160,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D0FCA-E26A-417D-95CA-2A2405F64A72}">
   <dimension ref="C3:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="4"/>
-    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.7109375" style="4"/>
-    <col min="12" max="12" width="10.28515625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="4"/>
+    <col min="6" max="11" width="8.6640625" style="4"/>
+    <col min="12" max="12" width="10.33203125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="3:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="26" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="1"/>
       <c r="F7" s="6" t="s">
         <v>5</v>
@@ -1419,7 +1251,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1436,29 +1268,29 @@
       <c r="L8" s="1"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="3:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1303,7 @@
       <c r="M10" s="9"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1318,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1334,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1351,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1536,24 +1368,24 @@
       <c r="L14" s="1"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="3:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="3:15" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1570,22 +1402,22 @@
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="3:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="11" t="s">
         <v>22</v>
       </c>
@@ -1601,18 +1433,18 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
@@ -1628,12 +1460,12 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="12"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
@@ -1641,12 +1473,12 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="12"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
@@ -1654,12 +1486,12 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="12"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
@@ -1667,12 +1499,12 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="12"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
@@ -1680,12 +1512,12 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="12"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
@@ -1693,12 +1525,12 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="12"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
@@ -1706,14 +1538,14 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="3:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12">
         <f>SUM(I19:I25)</f>
@@ -1726,97 +1558,73 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="15" t="s">
+    <row r="28" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
+    <row r="29" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="26"/>
+      <c r="I29" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="3:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="16" t="s">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="3:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I31" s="5"/>
       <c r="J31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
@@ -1833,6 +1641,30 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:K29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/public/bieumau/phieunhap.xlsx
+++ b/public/bieumau/phieunhap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196EDE0-2B0D-4EB7-B49A-DF17D520973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE8E10-58FD-4AEA-881A-E9A4BB4528B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="696" windowWidth="11208" windowHeight="11652" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
+    <workbookView xWindow="12540" yWindow="156" windowWidth="10560" windowHeight="11652" xr2:uid="{CA9567F6-C973-4510-BB0F-BB66C1C29019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>PHIẾU NHẬP HÀNG KHO 
 KIÊM VẬN CHUYỂN NỘI BỘ</t>
@@ -243,9 +243,6 @@
     </r>
   </si>
   <si>
-    <t>Lô E, KCN Tràng Duệ, thuộc KKT Đình Vũ Cát Hải, xã Hồng Phong, huyện An Dương, TP.Hải Phòng, Việt Nam</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lệnh điều động nội bộ </t>
     </r>
@@ -408,23 +405,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mã số
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(Part no.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Đơn vị tính
 </t>
     </r>
@@ -511,30 +491,15 @@
     <t>Cái</t>
   </si>
   <si>
-    <t>Tổng</t>
-  </si>
-  <si>
     <t>Người vận chuyển</t>
   </si>
   <si>
-    <t>Thủ kho xuất</t>
-  </si>
-  <si>
-    <t>Thủ kho nhập</t>
-  </si>
-  <si>
     <t>Đơn vị nhập hàng</t>
   </si>
   <si>
     <t>(Carrier)</t>
   </si>
   <si>
-    <t>(Issuing Storekeeper)</t>
-  </si>
-  <si>
-    <t>(Storekeeper)</t>
-  </si>
-  <si>
     <t>(Imported)</t>
   </si>
   <si>
@@ -558,6 +523,23 @@
   </si>
   <si>
     <t>VND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã Vật Tư
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Display"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Part no.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -627,7 +609,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -663,19 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -721,6 +690,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -729,33 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1158,154 +1127,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D0FCA-E26A-417D-95CA-2A2405F64A72}">
-  <dimension ref="C3:O31"/>
+  <dimension ref="C3:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="4"/>
     <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="12" width="10.33203125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="19.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="9" width="8.6640625" style="4"/>
+    <col min="10" max="10" width="10.33203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="24"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="3:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6">
+      <c r="E8" s="6">
         <v>201723640</v>
       </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="K10" s="9"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1314,357 +1265,199 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>201638599</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="3:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="3:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="3:13" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="3:15" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="3:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22" t="s">
+      <c r="G18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="23"/>
       <c r="H18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:11" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24" t="s">
+      <c r="G19" s="12">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13">
+        <v>8</v>
+      </c>
+      <c r="I19" s="13">
+        <v>400</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="3:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="12" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="12">
-        <v>50</v>
-      </c>
-      <c r="J19" s="13">
-        <v>8</v>
-      </c>
-      <c r="K19" s="13">
-        <v>400</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="12"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="12"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="12"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="12"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="12"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="3:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="12" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12">
-        <f>SUM(I19:I25)</f>
-        <v>50</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12">
-        <f>SUM(K19:K25)</f>
-        <v>400</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="18" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="3:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="3:13" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I31" s="5"/>
-      <c r="J31" s="14"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="5"/>
+      <c r="H24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
+  <mergeCells count="16">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
